--- a/biology/Médecine/Lupus_érythémateux_tumidus/Lupus_érythémateux_tumidus.xlsx
+++ b/biology/Médecine/Lupus_érythémateux_tumidus/Lupus_érythémateux_tumidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lupus_%C3%A9ryth%C3%A9mateux_tumidus</t>
+          <t>Lupus_érythémateux_tumidus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lupus érythémateux tumide ou lupus érythémateux tumidus (ou Tumid lupus erythematosus ou TLE pour les anglophones) est une variante rare du lupus érythémateux cutané[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lupus érythémateux tumide ou lupus érythémateux tumidus (ou Tumid lupus erythematosus ou TLE pour les anglophones) est une variante rare du lupus érythémateux cutané. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lupus_%C3%A9ryth%C3%A9mateux_tumidus</t>
+          <t>Lupus_érythémateux_tumidus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tumide en latin signifie « bosselé » ou « tuméfié ».
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lupus_%C3%A9ryth%C3%A9mateux_tumidus</t>
+          <t>Lupus_érythémateux_tumidus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une maladie rare, qui affecte essentiellement des femmes jeunes[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une maladie rare, qui affecte essentiellement des femmes jeunes. 
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lupus_%C3%A9ryth%C3%A9mateux_tumidus</t>
+          <t>Lupus_érythémateux_tumidus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,13 +589,15 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cliniquement parlant, la maladie évoque 
 la lucite polymorphe,
 le lupus érythémateux disséminé (SLE),
 la mucinose réticulée érythémateuse, ou
-un érythème annulaire[1].</t>
+un érythème annulaire.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lupus_%C3%A9ryth%C3%A9mateux_tumidus</t>
+          <t>Lupus_érythémateux_tumidus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,10 +625,12 @@
           <t>Histopathologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Histopathologiquement parlant, les lésions peuvent faire évoquer un lupus érythémateux classique pour la présence d'infiltrats inflammatoires lymphohistiocytiques et de mucine dermale, en superficie et en profondeur de la peau ; mais contrairement à un lupus érythémateux classique, il y a peu ou pas de participation épidermique ou dermo-épidermique[1]. 
-Les résultats des tests d'anticorps antinucléaires sont généralement négatifs[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Histopathologiquement parlant, les lésions peuvent faire évoquer un lupus érythémateux classique pour la présence d'infiltrats inflammatoires lymphohistiocytiques et de mucine dermale, en superficie et en profondeur de la peau ; mais contrairement à un lupus érythémateux classique, il y a peu ou pas de participation épidermique ou dermo-épidermique. 
+Les résultats des tests d'anticorps antinucléaires sont généralement négatifs
 </t>
         </is>
       </c>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lupus_%C3%A9ryth%C3%A9mateux_tumidus</t>
+          <t>Lupus_érythémateux_tumidus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,10 +659,12 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles sont encore mal comprises. 
-Dans certains cas, ce lupus pourrait être induit par une bactérie (borrelia, spirochète) responsable de la maladie de Lyme[2], tout comme une autre forme d'érythème (Erythema anulare centrifugum[3].
+Dans certains cas, ce lupus pourrait être induit par une bactérie (borrelia, spirochète) responsable de la maladie de Lyme, tout comme une autre forme d'érythème (Erythema anulare centrifugum.
 </t>
         </is>
       </c>
